--- a/runs/run382/NotionalETEOutput382.xlsx
+++ b/runs/run382/NotionalETEOutput382.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_ANGERMAX1_State_Update</t>
+    <t>Missile_ANGERMAX0_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1_171.MISSILE_ANGERMAX1_171</t>
+    <t>MISSILE_ANGERMAX0_432.MISSILE_ANGERMAX0_432</t>
   </si>
   <si>
-    <t>MISSILE_ANGERMAX1</t>
+    <t>MISSILE_ANGERMAX0</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1462.53961723989</v>
+        <v>-1571.052411091434</v>
       </c>
       <c r="J2">
-        <v>2090.342338170165</v>
+        <v>2004.478390128301</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1399.255314057581</v>
+        <v>-1458.800626621989</v>
       </c>
       <c r="J3">
-        <v>1886.373100220085</v>
+        <v>2037.380969049735</v>
       </c>
       <c r="K3">
-        <v>317.0963138391369</v>
+        <v>296.2847237259217</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1455.801539622609</v>
+        <v>-1428.912251372686</v>
       </c>
       <c r="J4">
-        <v>1835.238559587217</v>
+        <v>1866.852948501634</v>
       </c>
       <c r="K4">
-        <v>620.3079413213596</v>
+        <v>562.8687453529969</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1461.048763870573</v>
+        <v>-1428.270723713169</v>
       </c>
       <c r="J5">
-        <v>1900.411807896077</v>
+        <v>1818.740757953727</v>
       </c>
       <c r="K5">
-        <v>829.0603685393353</v>
+        <v>890.9966945331408</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1341.893597844982</v>
+        <v>-1388.966007130577</v>
       </c>
       <c r="J6">
-        <v>1744.783447035608</v>
+        <v>1799.667264436068</v>
       </c>
       <c r="K6">
-        <v>1136.247698888118</v>
+        <v>1119.784196659643</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1325.146616446874</v>
+        <v>-1337.90089974023</v>
       </c>
       <c r="J7">
-        <v>1769.826354950387</v>
+        <v>1750.130594644182</v>
       </c>
       <c r="K7">
-        <v>1299.218941610778</v>
+        <v>1380.701050017513</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1250.399147684133</v>
+        <v>-1330.963208246963</v>
       </c>
       <c r="J8">
-        <v>1752.151517761676</v>
+        <v>1775.045585836209</v>
       </c>
       <c r="K8">
-        <v>1605.512269986632</v>
+        <v>1655.262559456395</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-104.9201276397836</v>
+        <v>-103.1879927655845</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1227.817575374954</v>
+        <v>-1325.82077229542</v>
       </c>
       <c r="J9">
-        <v>1652.130503446475</v>
+        <v>1734.00683524567</v>
       </c>
       <c r="K9">
-        <v>1891.286703289738</v>
+        <v>1789.79523804671</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>223.156098446108</v>
+        <v>210.7429447983681</v>
       </c>
       <c r="G10">
-        <v>-84.83330374259062</v>
+        <v>-85.74575642708125</v>
       </c>
       <c r="H10">
-        <v>880.5341552123364</v>
+        <v>871.6189868943284</v>
       </c>
       <c r="I10">
-        <v>-1189.554900642697</v>
+        <v>-1255.2791644825</v>
       </c>
       <c r="J10">
-        <v>1538.378026282023</v>
+        <v>1616.662936373365</v>
       </c>
       <c r="K10">
-        <v>2067.129264909286</v>
+        <v>2035.76350525869</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>175.2683809012034</v>
+        <v>174.33611645116</v>
       </c>
       <c r="G11">
-        <v>-68.64750086255671</v>
+        <v>-66.11750512190181</v>
       </c>
       <c r="H11">
-        <v>1057.53850004654</v>
+        <v>1109.985738498531</v>
       </c>
       <c r="I11">
-        <v>-1164.858299670143</v>
+        <v>-1173.759567341806</v>
       </c>
       <c r="J11">
-        <v>1608.333717425517</v>
+        <v>1634.721490097867</v>
       </c>
       <c r="K11">
-        <v>2182.268425285257</v>
+        <v>2083.852341006286</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>142.8777646970929</v>
+        <v>140.2789007737232</v>
       </c>
       <c r="G12">
-        <v>-49.98604314498863</v>
+        <v>-52.18267044512703</v>
       </c>
       <c r="H12">
-        <v>1212.815557980203</v>
+        <v>1145.668912830648</v>
       </c>
       <c r="I12">
-        <v>-1133.355657646327</v>
+        <v>-1113.862208495181</v>
       </c>
       <c r="J12">
-        <v>1495.443514667613</v>
+        <v>1557.088101029572</v>
       </c>
       <c r="K12">
-        <v>2386.864726116076</v>
+        <v>2307.204197490114</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>125.6924411450051</v>
+        <v>124.4023043286066</v>
       </c>
       <c r="G13">
-        <v>-33.06488497006252</v>
+        <v>-35.00416998603072</v>
       </c>
       <c r="H13">
-        <v>1320.284114063893</v>
+        <v>1287.227193023459</v>
       </c>
       <c r="I13">
-        <v>-1151.508871124423</v>
+        <v>-1177.188332217658</v>
       </c>
       <c r="J13">
-        <v>1451.862153181466</v>
+        <v>1425.772973845107</v>
       </c>
       <c r="K13">
-        <v>2632.706533826911</v>
+        <v>2578.728381580469</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>106.9467251378444</v>
+        <v>110.6499153708317</v>
       </c>
       <c r="G14">
-        <v>-16.57345321822775</v>
+        <v>-17.73236313442144</v>
       </c>
       <c r="H14">
-        <v>1321.582258892451</v>
+        <v>1339.228912561156</v>
       </c>
       <c r="I14">
-        <v>-1090.770356111011</v>
+        <v>-1039.521616904306</v>
       </c>
       <c r="J14">
-        <v>1351.143077311727</v>
+        <v>1453.735533388233</v>
       </c>
       <c r="K14">
-        <v>2618.427716195378</v>
+        <v>2712.339313174515</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>99.00867682514442</v>
+        <v>100.654056550839</v>
       </c>
       <c r="G15">
-        <v>-0.9154523923049648</v>
+        <v>-0.9257776933469153</v>
       </c>
       <c r="H15">
-        <v>1367.538852976028</v>
+        <v>1443.966266689429</v>
       </c>
       <c r="I15">
-        <v>-1098.315176640549</v>
+        <v>-1083.886982028201</v>
       </c>
       <c r="J15">
-        <v>1393.908518514999</v>
+        <v>1328.667545663816</v>
       </c>
       <c r="K15">
-        <v>2753.244554101871</v>
+        <v>2788.085152271167</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>91.70540806566559</v>
+        <v>95.66660220782379</v>
       </c>
       <c r="G16">
-        <v>15.32497013232293</v>
+        <v>16.34569899057308</v>
       </c>
       <c r="H16">
-        <v>1407.79195655086</v>
+        <v>1480.143948146864</v>
       </c>
       <c r="I16">
-        <v>-975.4874275051615</v>
+        <v>-1045.057550472017</v>
       </c>
       <c r="J16">
-        <v>1280.870981852084</v>
+        <v>1307.428131909323</v>
       </c>
       <c r="K16">
-        <v>2785.312312901049</v>
+        <v>2770.897866089266</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>84.88543334345704</v>
+        <v>87.76766348440441</v>
       </c>
       <c r="G17">
-        <v>32.6654651539593</v>
+        <v>32.08947528208266</v>
       </c>
       <c r="H17">
-        <v>1444.811358535069</v>
+        <v>1424.851676404387</v>
       </c>
       <c r="I17">
-        <v>-999.2946411195157</v>
+        <v>-977.1424690995326</v>
       </c>
       <c r="J17">
-        <v>1265.281629813735</v>
+        <v>1243.248214456457</v>
       </c>
       <c r="K17">
-        <v>2986.088104124297</v>
+        <v>3056.555116885759</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>84.27683113365612</v>
+        <v>82.09689887471349</v>
       </c>
       <c r="G18">
-        <v>49.00059928829199</v>
+        <v>49.37718515236726</v>
       </c>
       <c r="H18">
-        <v>1463.287412473451</v>
+        <v>1491.80381698382</v>
       </c>
       <c r="I18">
-        <v>-926.2692892623803</v>
+        <v>-923.9560099856781</v>
       </c>
       <c r="J18">
-        <v>1259.724537034675</v>
+        <v>1230.631772240848</v>
       </c>
       <c r="K18">
-        <v>2967.492262851626</v>
+        <v>3082.234401334742</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>79.22137960539075</v>
+        <v>80.96439018557828</v>
       </c>
       <c r="G19">
-        <v>64.75907712058357</v>
+        <v>66.97063364595365</v>
       </c>
       <c r="H19">
-        <v>1512.657147764818</v>
+        <v>1597.855201407764</v>
       </c>
       <c r="I19">
-        <v>-899.1639842003846</v>
+        <v>-851.9054376155906</v>
       </c>
       <c r="J19">
-        <v>1171.048385076909</v>
+        <v>1158.33831851068</v>
       </c>
       <c r="K19">
-        <v>2980.519829877886</v>
+        <v>3100.708750879708</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.51835728629672</v>
+        <v>74.56080987224267</v>
       </c>
       <c r="G20">
-        <v>82.1499697346718</v>
+        <v>82.23012723854497</v>
       </c>
       <c r="H20">
-        <v>1504.406163801082</v>
+        <v>1546.155706061517</v>
       </c>
       <c r="I20">
-        <v>-837.8304457478254</v>
+        <v>-816.0813850450805</v>
       </c>
       <c r="J20">
-        <v>1143.828536125762</v>
+        <v>1176.222056785514</v>
       </c>
       <c r="K20">
-        <v>3102.782058309022</v>
+        <v>3266.183168304949</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>71.93750838808563</v>
+        <v>70.26013621796361</v>
       </c>
       <c r="G21">
-        <v>101.9524388652349</v>
+        <v>93.37104289204039</v>
       </c>
       <c r="H21">
-        <v>1556.10877250054</v>
+        <v>1654.882647970788</v>
       </c>
       <c r="I21">
-        <v>-830.5918766143637</v>
+        <v>-774.869207162878</v>
       </c>
       <c r="J21">
-        <v>1099.870581872254</v>
+        <v>1098.26726405838</v>
       </c>
       <c r="K21">
-        <v>3223.130611691085</v>
+        <v>3152.03570509507</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>65.18725859449493</v>
+        <v>69.87699318914726</v>
       </c>
       <c r="G22">
-        <v>118.6311846127744</v>
+        <v>113.766013419542</v>
       </c>
       <c r="H22">
-        <v>1568.981569139373</v>
+        <v>1612.556880823198</v>
       </c>
       <c r="I22">
-        <v>-774.0415041705099</v>
+        <v>-764.3279266999896</v>
       </c>
       <c r="J22">
-        <v>1056.864580752549</v>
+        <v>1057.636719730339</v>
       </c>
       <c r="K22">
-        <v>3321.901639269614</v>
+        <v>3154.754264049025</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>65.75745713805767</v>
+        <v>64.84772664392389</v>
       </c>
       <c r="G23">
-        <v>125.1823292152543</v>
+        <v>129.6395978939378</v>
       </c>
       <c r="H23">
-        <v>1691.478335733432</v>
+        <v>1647.172072265434</v>
       </c>
       <c r="I23">
-        <v>-720.1923309439667</v>
+        <v>-674.699603041473</v>
       </c>
       <c r="J23">
-        <v>1023.725120626611</v>
+        <v>947.5699762526677</v>
       </c>
       <c r="K23">
-        <v>3078.558359814061</v>
+        <v>3091.994298701622</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>62.46627471980836</v>
+        <v>63.81738503437751</v>
       </c>
       <c r="G24">
-        <v>150.4398262672147</v>
+        <v>140.7854451563045</v>
       </c>
       <c r="H24">
-        <v>1624.903790114723</v>
+        <v>1588.375562580986</v>
       </c>
       <c r="I24">
-        <v>-657.5867130138469</v>
+        <v>-680.6339546833234</v>
       </c>
       <c r="J24">
-        <v>891.0397692845552</v>
+        <v>924.4138096538537</v>
       </c>
       <c r="K24">
-        <v>3301.155401502715</v>
+        <v>3276.431607524656</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>60.83886960729124</v>
+        <v>61.90618871364507</v>
       </c>
       <c r="G25">
-        <v>163.5568986562741</v>
+        <v>161.5721086060236</v>
       </c>
       <c r="H25">
-        <v>1701.008219791888</v>
+        <v>1677.035323490018</v>
       </c>
       <c r="I25">
-        <v>-581.4366141713047</v>
+        <v>-569.1340899974909</v>
       </c>
       <c r="J25">
-        <v>890.1726531567271</v>
+        <v>883.0294161670638</v>
       </c>
       <c r="K25">
-        <v>3247.503170503281</v>
+        <v>3185.761909585053</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>58.18960672422331</v>
+        <v>62.02916872791515</v>
       </c>
       <c r="G26">
-        <v>177.6572033486155</v>
+        <v>183.8230876238456</v>
       </c>
       <c r="H26">
-        <v>1745.487564029189</v>
+        <v>1731.187315711273</v>
       </c>
       <c r="I26">
-        <v>-520.9612931324932</v>
+        <v>-523.4655278722055</v>
       </c>
       <c r="J26">
-        <v>835.7299885445866</v>
+        <v>840.9805664310171</v>
       </c>
       <c r="K26">
-        <v>3163.458461441814</v>
+        <v>3221.22245718662</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>59.8208037994973</v>
+        <v>55.345665164705</v>
       </c>
       <c r="G27">
-        <v>203.9028056257904</v>
+        <v>202.1700268030681</v>
       </c>
       <c r="H27">
-        <v>1752.333148490503</v>
+        <v>1767.009740006071</v>
       </c>
       <c r="I27">
-        <v>-502.1752346860429</v>
+        <v>-471.4839468126831</v>
       </c>
       <c r="J27">
-        <v>800.078022316856</v>
+        <v>817.3859635087078</v>
       </c>
       <c r="K27">
-        <v>2986.222129600405</v>
+        <v>3114.947111445435</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>57.67796964246708</v>
+        <v>57.8539439550935</v>
       </c>
       <c r="G28">
-        <v>221.8238047089157</v>
+        <v>224.232209828093</v>
       </c>
       <c r="H28">
-        <v>1693.655134712348</v>
+        <v>1650.148550514308</v>
       </c>
       <c r="I28">
-        <v>-455.5544543583821</v>
+        <v>-454.9126553185793</v>
       </c>
       <c r="J28">
-        <v>761.2928644436912</v>
+        <v>726.4663182315954</v>
       </c>
       <c r="K28">
-        <v>3018.839578330684</v>
+        <v>2864.624060041142</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>57.46442745470677</v>
+        <v>55.64393835781261</v>
       </c>
       <c r="G29">
-        <v>238.1786654776538</v>
+        <v>240.2516384945581</v>
       </c>
       <c r="H29">
-        <v>1779.170715722222</v>
+        <v>1738.041744071861</v>
       </c>
       <c r="I29">
-        <v>-391.7079353230527</v>
+        <v>-397.3293056644861</v>
       </c>
       <c r="J29">
-        <v>683.3904882476062</v>
+        <v>687.1367728411393</v>
       </c>
       <c r="K29">
-        <v>2939.105312753306</v>
+        <v>3011.43624856598</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.27440749404695</v>
+        <v>52.20230660588048</v>
       </c>
       <c r="G30">
-        <v>237.6318572907703</v>
+        <v>256.9738553004051</v>
       </c>
       <c r="H30">
-        <v>1758.245095250958</v>
+        <v>1713.868925878522</v>
       </c>
       <c r="I30">
-        <v>-334.3103528590548</v>
+        <v>-316.6749023926205</v>
       </c>
       <c r="J30">
-        <v>614.4876810933371</v>
+        <v>610.0518041686225</v>
       </c>
       <c r="K30">
-        <v>2641.713837213839</v>
+        <v>2846.584530732679</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>54.88023705895858</v>
+        <v>52.89406563360987</v>
       </c>
       <c r="G31">
-        <v>259.9933762854957</v>
+        <v>276.1001955138776</v>
       </c>
       <c r="H31">
-        <v>1842.9460967472</v>
+        <v>1681.320983923722</v>
       </c>
       <c r="I31">
-        <v>-278.9112958967641</v>
+        <v>-259.4455283845037</v>
       </c>
       <c r="J31">
-        <v>583.3106685405572</v>
+        <v>581.7923647209142</v>
       </c>
       <c r="K31">
-        <v>2745.671380723058</v>
+        <v>2537.310821283309</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.6528458263323</v>
+        <v>50.23294909539408</v>
       </c>
       <c r="G32">
-        <v>291.559470844377</v>
+        <v>289.514492162035</v>
       </c>
       <c r="H32">
-        <v>1759.661440935776</v>
+        <v>1835.606676605632</v>
       </c>
       <c r="I32">
-        <v>-206.9959928975973</v>
+        <v>-202.2946371612218</v>
       </c>
       <c r="J32">
-        <v>519.5595277155265</v>
+        <v>533.1040398897516</v>
       </c>
       <c r="K32">
-        <v>2589.195773418778</v>
+        <v>2502.14416886297</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.60149290100093</v>
+        <v>49.54659980108082</v>
       </c>
       <c r="G33">
-        <v>307.8477077390417</v>
+        <v>303.7128372185845</v>
       </c>
       <c r="H33">
-        <v>1751.244933800569</v>
+        <v>1872.992717552864</v>
       </c>
       <c r="I33">
-        <v>-143.6613308059211</v>
+        <v>-145.1083965192393</v>
       </c>
       <c r="J33">
-        <v>508.7067271638974</v>
+        <v>473.5165194401645</v>
       </c>
       <c r="K33">
-        <v>2313.757700180275</v>
+        <v>2406.424634819295</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>50.07531357998628</v>
+        <v>50.9491122788741</v>
       </c>
       <c r="G34">
-        <v>307.0912867094924</v>
+        <v>311.8804511920612</v>
       </c>
       <c r="H34">
-        <v>1759.278982733843</v>
+        <v>1724.789407116168</v>
       </c>
       <c r="I34">
-        <v>-80.06437842855277</v>
+        <v>-82.85926513876832</v>
       </c>
       <c r="J34">
-        <v>437.7871387148649</v>
+        <v>463.0021404425665</v>
       </c>
       <c r="K34">
-        <v>2196.091867000841</v>
+        <v>2273.626740029547</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.94256022963303</v>
+        <v>49.59277688332816</v>
       </c>
       <c r="G35">
-        <v>344.5018915386289</v>
+        <v>322.8334100066853</v>
       </c>
       <c r="H35">
-        <v>1853.589839545797</v>
+        <v>1890.251204453386</v>
       </c>
       <c r="I35">
-        <v>-18.45314961891453</v>
+        <v>-18.31507792791286</v>
       </c>
       <c r="J35">
-        <v>413.5001056480473</v>
+        <v>408.2360908047588</v>
       </c>
       <c r="K35">
-        <v>2040.452394545482</v>
+        <v>2072.976042207264</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>49.33077829199801</v>
+        <v>48.73554985032953</v>
       </c>
       <c r="G36">
-        <v>345.7846545934016</v>
+        <v>330.2518179500483</v>
       </c>
       <c r="H36">
-        <v>1875.464823351796</v>
+        <v>1760.28642758174</v>
       </c>
       <c r="I36">
-        <v>46.09753365781767</v>
+        <v>45.35226969785499</v>
       </c>
       <c r="J36">
-        <v>346.9626024143805</v>
+        <v>358.8048089110625</v>
       </c>
       <c r="K36">
-        <v>1750.905792965525</v>
+        <v>1781.251671500791</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>45.64239683638184</v>
+        <v>47.96226584556232</v>
       </c>
       <c r="G37">
-        <v>378.7155340977623</v>
+        <v>355.7499210631229</v>
       </c>
       <c r="H37">
-        <v>1889.114963325916</v>
+        <v>1764.406069609246</v>
       </c>
       <c r="I37">
-        <v>114.4395271539966</v>
+        <v>118.8797406400229</v>
       </c>
       <c r="J37">
-        <v>295.578480624425</v>
+        <v>296.8276055824276</v>
       </c>
       <c r="K37">
-        <v>1546.130171491035</v>
+        <v>1678.500187098485</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.19005877773251</v>
+        <v>45.04432719574788</v>
       </c>
       <c r="G38">
-        <v>384.9618089500647</v>
+        <v>394.2314484878449</v>
       </c>
       <c r="H38">
-        <v>1849.471655977172</v>
+        <v>1899.004330237002</v>
       </c>
       <c r="I38">
-        <v>192.4091951064841</v>
+        <v>184.5908888028581</v>
       </c>
       <c r="J38">
-        <v>258.4638795164601</v>
+        <v>249.4852783836839</v>
       </c>
       <c r="K38">
-        <v>1375.51957663424</v>
+        <v>1417.064065835938</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>43.74123138016962</v>
+        <v>43.38174866719591</v>
       </c>
       <c r="G39">
-        <v>376.6266438227416</v>
+        <v>408.1581551825904</v>
       </c>
       <c r="H39">
-        <v>1771.049850619858</v>
+        <v>1795.012442598185</v>
       </c>
       <c r="I39">
-        <v>247.9116499565466</v>
+        <v>252.192091443534</v>
       </c>
       <c r="J39">
-        <v>197.0150754604325</v>
+        <v>209.5150791578818</v>
       </c>
       <c r="K39">
-        <v>1128.213042512287</v>
+        <v>1171.983659296207</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>44.38966320356226</v>
+        <v>44.82240128833023</v>
       </c>
       <c r="G40">
-        <v>396.588437705675</v>
+        <v>427.2904841408732</v>
       </c>
       <c r="H40">
-        <v>1883.432392063953</v>
+        <v>1903.558354226668</v>
       </c>
       <c r="I40">
-        <v>316.5920372060662</v>
+        <v>328.7494867920958</v>
       </c>
       <c r="J40">
-        <v>150.0811664822857</v>
+        <v>147.8896489491603</v>
       </c>
       <c r="K40">
-        <v>859.211465295427</v>
+        <v>871.914864844802</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.12703341040347</v>
+        <v>44.00474926454199</v>
       </c>
       <c r="G41">
-        <v>428.9683906843322</v>
+        <v>424.6021464625263</v>
       </c>
       <c r="H41">
-        <v>1816.052899947939</v>
+        <v>1933.829767260705</v>
       </c>
       <c r="I41">
-        <v>388.3651983499704</v>
+        <v>386.5152163069925</v>
       </c>
       <c r="J41">
-        <v>98.81178611193479</v>
+        <v>101.0284905475228</v>
       </c>
       <c r="K41">
-        <v>629.8435855877489</v>
+        <v>611.5572015960381</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>41.03789958139009</v>
+        <v>41.97071607728228</v>
       </c>
       <c r="G42">
-        <v>446.0765961595765</v>
+        <v>430.5024169845812</v>
       </c>
       <c r="H42">
-        <v>1882.330519505617</v>
+        <v>1866.854078661061</v>
       </c>
       <c r="I42">
-        <v>488.8104855732108</v>
+        <v>481.1339537082222</v>
       </c>
       <c r="J42">
-        <v>52.05046240393168</v>
+        <v>54.43888719135865</v>
       </c>
       <c r="K42">
-        <v>341.363821179208</v>
+        <v>336.261838697014</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.64345755844854</v>
+        <v>41.15915199924468</v>
       </c>
       <c r="G43">
-        <v>446.1379409218433</v>
+        <v>449.7406102784768</v>
       </c>
       <c r="H43">
-        <v>1935.741476170156</v>
+        <v>1861.442127352017</v>
       </c>
       <c r="I43">
-        <v>575.8793210646857</v>
+        <v>555.3616264193987</v>
       </c>
       <c r="J43">
-        <v>5.220249651957023</v>
+        <v>5.358462377830475</v>
       </c>
       <c r="K43">
-        <v>34.9072457826189</v>
+        <v>33.87111512537518</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>39.55053213087189</v>
+        <v>43.1416384375251</v>
       </c>
       <c r="G44">
-        <v>480.5376730508048</v>
+        <v>470.5029390841527</v>
       </c>
       <c r="H44">
-        <v>1976.365061675798</v>
+        <v>1916.427413018919</v>
       </c>
       <c r="I44">
-        <v>637.1867440520484</v>
+        <v>611.1552736670901</v>
       </c>
       <c r="J44">
-        <v>-44.0648896512166</v>
+        <v>-42.8027268860923</v>
       </c>
       <c r="K44">
-        <v>-297.5907203063416</v>
+        <v>-288.8900484144194</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.2667329174392</v>
+        <v>42.08414200184246</v>
       </c>
       <c r="G45">
-        <v>495.826071777526</v>
+        <v>513.576982219105</v>
       </c>
       <c r="H45">
-        <v>1851.57661737453</v>
+        <v>1912.867255498557</v>
       </c>
       <c r="I45">
-        <v>729.8212894341851</v>
+        <v>736.8796179767836</v>
       </c>
       <c r="J45">
-        <v>-93.59041376376308</v>
+        <v>-93.18155399208528</v>
       </c>
       <c r="K45">
-        <v>-605.3492769896759</v>
+        <v>-586.7313349342239</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.00693618924713</v>
+        <v>39.0811154158452</v>
       </c>
       <c r="G46">
-        <v>526.8627930331622</v>
+        <v>494.9618776114178</v>
       </c>
       <c r="H46">
-        <v>1931.682959961276</v>
+        <v>1990.496951196446</v>
       </c>
       <c r="I46">
-        <v>827.7421547016278</v>
+        <v>829.8714852171776</v>
       </c>
       <c r="J46">
-        <v>-142.9919011341569</v>
+        <v>-143.7967433665892</v>
       </c>
       <c r="K46">
-        <v>-1001.875770777313</v>
+        <v>-1001.91752514023</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>39.04799481311144</v>
+        <v>40.87093394509479</v>
       </c>
       <c r="G47">
-        <v>527.9634834836297</v>
+        <v>547.1089934731482</v>
       </c>
       <c r="H47">
-        <v>1915.842460935348</v>
+        <v>1916.277356306381</v>
       </c>
       <c r="I47">
-        <v>929.0599136296341</v>
+        <v>912.5926355455259</v>
       </c>
       <c r="J47">
-        <v>-194.4019353912042</v>
+        <v>-192.5165883086631</v>
       </c>
       <c r="K47">
-        <v>-1289.874873053692</v>
+        <v>-1271.480289263824</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>39.3717276640629</v>
+        <v>39.89649741493702</v>
       </c>
       <c r="G48">
-        <v>566.844907254933</v>
+        <v>537.3515722935733</v>
       </c>
       <c r="H48">
-        <v>1848.136655188453</v>
+        <v>1879.355358393684</v>
       </c>
       <c r="I48">
-        <v>944.1600444375185</v>
+        <v>946.4350069602049</v>
       </c>
       <c r="J48">
-        <v>-226.2113906722402</v>
+        <v>-229.9598717925075</v>
       </c>
       <c r="K48">
-        <v>-1756.668593193978</v>
+        <v>-1648.258113290335</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.29390398875152</v>
+        <v>40.21553496201647</v>
       </c>
       <c r="G49">
-        <v>536.7498784777497</v>
+        <v>568.737781611774</v>
       </c>
       <c r="H49">
-        <v>2007.613699796816</v>
+        <v>2021.122886750107</v>
       </c>
       <c r="I49">
-        <v>1090.773938490817</v>
+        <v>1060.421112553879</v>
       </c>
       <c r="J49">
-        <v>-295.2839742020138</v>
+        <v>-282.6742852885426</v>
       </c>
       <c r="K49">
-        <v>-2016.730752078552</v>
+        <v>-2095.868802013955</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>37.07433619107829</v>
+        <v>37.344475288181</v>
       </c>
       <c r="G50">
-        <v>560.646961779112</v>
+        <v>569.8860099489331</v>
       </c>
       <c r="H50">
-        <v>1941.703681041897</v>
+        <v>2005.972411594404</v>
       </c>
       <c r="I50">
-        <v>1106.389837073742</v>
+        <v>1115.594644995268</v>
       </c>
       <c r="J50">
-        <v>-338.7737006112922</v>
+        <v>-350.7354333989612</v>
       </c>
       <c r="K50">
-        <v>-2417.447128892494</v>
+        <v>-2518.64865701513</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>38.00123888640532</v>
+        <v>36.08816932293854</v>
       </c>
       <c r="G51">
-        <v>589.5062669973522</v>
+        <v>604.56407229898</v>
       </c>
       <c r="H51">
-        <v>2046.173650177477</v>
+        <v>1898.889594181758</v>
       </c>
       <c r="I51">
-        <v>1236.302479101383</v>
+        <v>1310.157922173626</v>
       </c>
       <c r="J51">
-        <v>-378.6655323525946</v>
+        <v>-384.7561199998706</v>
       </c>
       <c r="K51">
-        <v>-2862.476123710342</v>
+        <v>-3041.688947610086</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>36.83662424798138</v>
+        <v>38.68820344398779</v>
       </c>
       <c r="G52">
-        <v>629.428692967402</v>
+        <v>586.5644793030111</v>
       </c>
       <c r="H52">
-        <v>1906.877668674299</v>
+        <v>2047.644939013232</v>
       </c>
       <c r="I52">
-        <v>1309.786098369585</v>
+        <v>1372.282540120235</v>
       </c>
       <c r="J52">
-        <v>-449.2855355498473</v>
+        <v>-425.8958361045001</v>
       </c>
       <c r="K52">
-        <v>-3454.532011640925</v>
+        <v>-3290.549195501117</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>35.61156115780936</v>
+        <v>37.0322756583375</v>
       </c>
       <c r="G53">
-        <v>647.4561722372387</v>
+        <v>607.987584432757</v>
       </c>
       <c r="H53">
-        <v>1883.998697075781</v>
+        <v>1988.863113006793</v>
       </c>
       <c r="I53">
-        <v>1402.023489025191</v>
+        <v>1395.56009179223</v>
       </c>
       <c r="J53">
-        <v>-499.0505282667834</v>
+        <v>-493.1342707694768</v>
       </c>
       <c r="K53">
-        <v>-3685.947655401706</v>
+        <v>-4000.614163060802</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>36.93398964996812</v>
+        <v>35.36789195098949</v>
       </c>
       <c r="G54">
-        <v>651.86789300495</v>
+        <v>644.7643493774418</v>
       </c>
       <c r="H54">
-        <v>2001.615540970925</v>
+        <v>2023.831375671835</v>
       </c>
       <c r="I54">
-        <v>1544.866142922524</v>
+        <v>1514.86495686983</v>
       </c>
       <c r="J54">
-        <v>-527.6856733946291</v>
+        <v>-521.644746435401</v>
       </c>
       <c r="K54">
-        <v>-4102.644146556805</v>
+        <v>-4331.760712313461</v>
       </c>
     </row>
   </sheetData>
